--- a/Business Analysis/data/user_8.xlsx
+++ b/Business Analysis/data/user_8.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epistimi\Documents\DataSience\Multimodal\emotion_based_music_recomendation\Business Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543DD89-679F-4F99-BC01-707C563673BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
-    <sheet name="Template emotion_datasheet4-use" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -538,7 +540,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1064,8 +1066,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1373,27 +1403,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
       <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1425,7 +1455,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1487,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1519,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1551,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1583,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1615,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1679,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1711,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1743,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1775,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1777,7 +1807,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1839,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1841,7 +1871,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +1903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1935,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +1967,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +1999,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2127,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2191,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +2223,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2255,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2287,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2319,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2351,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +2383,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2385,7 +2415,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2417,7 +2447,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2479,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +2511,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2543,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2575,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2639,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2641,7 +2671,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2673,7 +2703,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2705,7 +2735,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2767,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +2799,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2801,7 +2831,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2833,7 +2863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2865,7 +2895,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2897,7 +2927,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2959,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2961,7 +2991,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2993,7 +3023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3055,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +3087,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3089,7 +3119,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3121,7 +3151,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -3153,7 +3183,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3215,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3247,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3249,7 +3279,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +3311,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3343,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +3375,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3377,7 +3407,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>0</v>
       </c>
